--- a/client/whatsapp-web-js-client/src/Pages/assets/modelo_importacao.xlsx
+++ b/client/whatsapp-web-js-client/src/Pages/assets/modelo_importacao.xlsx
@@ -1,95 +1,82 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29101"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryzen\OneDrive\Área de Trabalho\clone-github\crm\client\whatsapp-web-js-client\src\Pages\assets\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82123BC5-D741-425F-A8B4-184109DD2C48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7CB9CCF5-6398-4E0A-AC5F-F5C37AF10EF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19605" yWindow="1950" windowWidth="16065" windowHeight="12660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Plan1" sheetId="1" r:id="rId1"/>
+    <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>nome</t>
+    <t xml:space="preserve">nome </t>
   </si>
   <si>
     <t>numero</t>
   </si>
   <si>
-    <t>coluna</t>
+    <t>etapa</t>
   </si>
   <si>
-    <t>matricula</t>
+    <t>João da Silva</t>
   </si>
   <si>
-    <t>Exemplo</t>
-  </si>
-  <si>
-    <t>Régua 3</t>
-  </si>
-  <si>
-    <t>Régua 1</t>
-  </si>
-  <si>
-    <t>Ana Souza</t>
-  </si>
-  <si>
-    <t>Régua 2</t>
-  </si>
-  <si>
-    <t>Carlos Lima</t>
-  </si>
-  <si>
-    <t>Beatriz Melo</t>
-  </si>
-  <si>
-    <t>Daniel Costa</t>
-  </si>
-  <si>
-    <t>Elisa Martins</t>
-  </si>
-  <si>
-    <t>Felipe Rocha</t>
-  </si>
-  <si>
-    <t>Gabriela Dias</t>
-  </si>
-  <si>
-    <t>Henrique Luz</t>
-  </si>
-  <si>
-    <t>Ítalo Nunes</t>
-  </si>
-  <si>
-    <t>Júlia Freitas</t>
+    <t>Nome da Etapa</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF212529"/>
+      <name val="-Apple-System"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF242424"/>
+      <name val="Aptos Narrow"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -114,15 +101,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -145,42 +134,42 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="145F82"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E87331"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="186C24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -210,12 +199,29 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -245,6 +251,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -306,13 +329,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -321,6 +337,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -385,7 +408,27 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
@@ -397,187 +440,56 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1">
+        <v>551188888888</v>
+      </c>
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1">
-        <v>11999999999</v>
-      </c>
-      <c r="D2">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3">
-        <v>11987654321</v>
-      </c>
-      <c r="D3">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4">
-        <v>11991234567</v>
-      </c>
-      <c r="D4">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5">
-        <v>11999887766</v>
-      </c>
-      <c r="D5">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6">
-        <v>11995554433</v>
-      </c>
-      <c r="D6">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7">
-        <v>11990011223</v>
-      </c>
-      <c r="D7">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8">
-        <v>11991112233</v>
-      </c>
-      <c r="D8">
-        <v>1006</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9">
-        <v>11992223344</v>
-      </c>
-      <c r="D9">
-        <v>1007</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10">
-        <v>11993334455</v>
-      </c>
-      <c r="D10">
-        <v>1008</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11">
-        <v>11994445566</v>
-      </c>
-      <c r="D11">
-        <v>1009</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12">
-        <v>11995556677</v>
-      </c>
-      <c r="D12">
-        <v>1010</v>
-      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="B3" s="1"/>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="B4" s="1"/>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="B5" s="1"/>
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="B6" s="1"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="C7" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
